--- a/테이블연금.xlsx
+++ b/테이블연금.xlsx
@@ -251,20 +251,53 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -273,7 +306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -282,6 +315,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A75:C107"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -596,366 +650,366 @@
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C8" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C9" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C14" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C15" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C16" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C17" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C19" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C20" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C22" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C23" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C24" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C25" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C26" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C27" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B28" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C28" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C29" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>18</v>
       </c>
     </row>

--- a/테이블연금.xlsx
+++ b/테이블연금.xlsx
@@ -251,7 +251,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,13 +272,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,7 +312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,8 +340,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -706,90 +715,90 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -826,7 +835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>35</v>
       </c>
@@ -837,51 +846,51 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
@@ -892,7 +901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>43</v>
       </c>
@@ -903,7 +912,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>3</v>
       </c>
@@ -914,7 +923,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>14</v>
       </c>
@@ -925,7 +934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>22</v>
       </c>
@@ -936,7 +945,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>37</v>
       </c>
@@ -947,7 +956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>45</v>
       </c>
@@ -958,7 +967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>47</v>
       </c>
@@ -969,7 +978,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +988,9 @@
       <c r="C30" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
@@ -990,8 +1000,9 @@
       <c r="C31" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>

--- a/테이블연금.xlsx
+++ b/테이블연금.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="98">
   <si>
     <t>내진</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +227,186 @@
   </si>
   <si>
     <t>단축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내뢰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우애</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내충</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇌광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수면병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흡입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭파병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속납</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내폭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,12 +446,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -285,6 +459,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,8 +517,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -647,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -715,222 +895,222 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -979,50 +1159,418 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="9"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="7" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="10"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="10"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="10"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" s="10"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/테이블연금.xlsx
+++ b/테이블연금.xlsx
@@ -830,7 +830,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1238,49 +1238,49 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D40" s="8"/>

--- a/테이블연금.xlsx
+++ b/테이블연금.xlsx
@@ -829,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1286,85 +1286,85 @@
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D43" s="9"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="7" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="7" t="s">
         <v>69</v>
       </c>
       <c r="D46" s="10"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="7" t="s">
         <v>83</v>
       </c>
       <c r="D47" s="9"/>

--- a/테이블연금.xlsx
+++ b/테이블연금.xlsx
@@ -492,7 +492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -501,9 +501,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -830,7 +827,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -883,548 +880,548 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:3" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="9"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="8"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="10"/>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="10"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="9"/>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="8"/>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="10"/>
+      <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="10"/>
+      <c r="D42" s="9"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="9"/>
+      <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D44" s="8"/>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="10"/>
+      <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="10"/>
+      <c r="D46" s="9"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="9"/>
+      <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="8"/>
+      <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D49" s="10"/>
+      <c r="D49" s="9"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="10"/>
+      <c r="D50" s="9"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D51" s="9"/>
+      <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1438,7 +1435,7 @@
       <c r="C53" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D53" s="8"/>
+      <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
@@ -1450,7 +1447,7 @@
       <c r="C54" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D54" s="10"/>
+      <c r="D54" s="9"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
@@ -1462,7 +1459,7 @@
       <c r="C55" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="10"/>
+      <c r="D55" s="9"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
@@ -1474,7 +1471,7 @@
       <c r="C56" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D56" s="9"/>
+      <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
@@ -1486,7 +1483,7 @@
       <c r="C57" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D57" s="8"/>
+      <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
@@ -1498,7 +1495,7 @@
       <c r="C58" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="10"/>
+      <c r="D58" s="9"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
@@ -1510,7 +1507,7 @@
       <c r="C59" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="10"/>
+      <c r="D59" s="9"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
@@ -1522,7 +1519,7 @@
       <c r="C60" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="9"/>
+      <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
@@ -1534,7 +1531,7 @@
       <c r="C61" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D61" s="8"/>
+      <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
@@ -1546,7 +1543,7 @@
       <c r="C62" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="10"/>
+      <c r="D62" s="9"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
@@ -1558,7 +1555,7 @@
       <c r="C63" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D63" s="10"/>
+      <c r="D63" s="9"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -1570,7 +1567,7 @@
       <c r="C64" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D64" s="9"/>
+      <c r="D64" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/테이블연금.xlsx
+++ b/테이블연금.xlsx
@@ -827,7 +827,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1426,37 +1426,37 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="6" t="s">
         <v>90</v>
       </c>
       <c r="D54" s="9"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D55" s="9"/>

--- a/테이블연금.xlsx
+++ b/테이블연금.xlsx
@@ -604,7 +604,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -721,49 +721,49 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="5"/>

--- a/테이블연금.xlsx
+++ b/테이블연금.xlsx
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -769,145 +769,145 @@
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -957,6 +957,7 @@
       <c r="C29" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -968,6 +969,7 @@
       <c r="C30" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
@@ -979,6 +981,7 @@
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -990,8 +993,9 @@
       <c r="C32" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>42</v>
       </c>
@@ -1001,8 +1005,9 @@
       <c r="C33" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
@@ -1012,8 +1017,9 @@
       <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>19</v>
       </c>
@@ -1023,8 +1029,9 @@
       <c r="C35" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -1034,8 +1041,9 @@
       <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
@@ -1045,6 +1053,7 @@
       <c r="C37" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D37" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
